--- a/data/Spreadsheet_Data/Material.xlsx
+++ b/data/Spreadsheet_Data/Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD5B78-5ADD-EB47-86B2-E0C337CBA32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0C17B-D123-CC40-857C-B179BEB51D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21180" yWindow="500" windowWidth="51000" windowHeight="26440" xr2:uid="{7BD0A2E7-6474-8D4B-AB32-BE85F237C272}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -76,70 +76,46 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>import_animal_character.xml</t>
-  </si>
-  <si>
     <t>import_audio.xml</t>
   </si>
   <si>
     <t>import_character.xml</t>
   </si>
   <si>
-    <t>import_fairytale_chapter.xml</t>
-  </si>
-  <si>
-    <t>import_fairytale.xml</t>
-  </si>
-  <si>
-    <t>import_image_animal.xml</t>
-  </si>
-  <si>
-    <t>import_image_human.xml</t>
-  </si>
-  <si>
-    <t>import_image_wonderland_character.xml</t>
-  </si>
-  <si>
     <t>import_location.xml</t>
   </si>
   <si>
-    <t>XML DSP import file for animal characters</t>
-  </si>
-  <si>
-    <t>import_originals.xml</t>
-  </si>
-  <si>
     <t>O_010</t>
   </si>
   <si>
-    <t>XML DSP import file for audio files</t>
-  </si>
-  <si>
-    <t>XML DSP import file for DaSCH employees</t>
-  </si>
-  <si>
-    <t>XML DSP import file for fairytale chapters</t>
-  </si>
-  <si>
-    <t>XML DSP import file for fairytales</t>
-  </si>
-  <si>
-    <t>XML DSP import file for animal image files</t>
-  </si>
-  <si>
-    <t>XML DSP import file for human image files</t>
-  </si>
-  <si>
-    <t>XML DSP import file for wonderland characters</t>
-  </si>
-  <si>
-    <t>XML DSP import file for locations</t>
-  </si>
-  <si>
-    <t>XML DSP import file for xml import files</t>
-  </si>
-  <si>
     <t>data/XML/</t>
+  </si>
+  <si>
+    <t>import_book_chapter.xml</t>
+  </si>
+  <si>
+    <t>import_book.xml</t>
+  </si>
+  <si>
+    <t>import_image.xml</t>
+  </si>
+  <si>
+    <t>import_event.xml</t>
+  </si>
+  <si>
+    <t>import_material.xml</t>
+  </si>
+  <si>
+    <t>import_archive.xml</t>
+  </si>
+  <si>
+    <t>O_011</t>
+  </si>
+  <si>
+    <t>import_documentation.xml</t>
+  </si>
+  <si>
+    <t>to be described</t>
   </si>
 </sst>
 </file>
@@ -506,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71194C-0CE3-7648-8A47-430ED0FD6A57}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -537,13 +513,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,13 +527,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,10 +544,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,13 +555,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,13 +583,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +597,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,13 +611,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,27 +625,41 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Material.xlsx
+++ b/data/Spreadsheet_Data/Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0C17B-D123-CC40-857C-B179BEB51D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496357FC-558F-D247-8B6A-2CA4F729579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21180" yWindow="500" windowWidth="51000" windowHeight="26440" xr2:uid="{7BD0A2E7-6474-8D4B-AB32-BE85F237C272}"/>
   </bookViews>
@@ -43,33 +43,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>O_001</t>
-  </si>
-  <si>
-    <t>O_002</t>
-  </si>
-  <si>
-    <t>O_003</t>
-  </si>
-  <si>
-    <t>O_004</t>
-  </si>
-  <si>
-    <t>O_005</t>
-  </si>
-  <si>
-    <t>O_006</t>
-  </si>
-  <si>
-    <t>O_007</t>
-  </si>
-  <si>
-    <t>O_008</t>
-  </si>
-  <si>
-    <t>O_009</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
@@ -85,9 +58,6 @@
     <t>import_location.xml</t>
   </si>
   <si>
-    <t>O_010</t>
-  </si>
-  <si>
     <t>data/XML/</t>
   </si>
   <si>
@@ -109,13 +79,43 @@
     <t>import_archive.xml</t>
   </si>
   <si>
-    <t>O_011</t>
-  </si>
-  <si>
     <t>import_documentation.xml</t>
   </si>
   <si>
     <t>to be described</t>
+  </si>
+  <si>
+    <t>MAT_001</t>
+  </si>
+  <si>
+    <t>MAT_002</t>
+  </si>
+  <si>
+    <t>MAT_003</t>
+  </si>
+  <si>
+    <t>MAT_004</t>
+  </si>
+  <si>
+    <t>MAT_005</t>
+  </si>
+  <si>
+    <t>MAT_006</t>
+  </si>
+  <si>
+    <t>MAT_007</t>
+  </si>
+  <si>
+    <t>MAT_008</t>
+  </si>
+  <si>
+    <t>MAT_009</t>
+  </si>
+  <si>
+    <t>MAT_010</t>
+  </si>
+  <si>
+    <t>MAT_011</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -502,164 +502,164 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
